--- a/resultados_backtesting.xlsx
+++ b/resultados_backtesting.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Saldo De la Cuenta</t>
+          <t>Total De la Cuenta</t>
         </is>
       </c>
     </row>
